--- a/data/unchecked/manual_collect/china/taiwan/taiwanCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/taiwan/taiwanCaseStatistics_20200217.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\新型肺炎\2月18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F96C37-7885-4893-83F8-871C0797ECCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771A59D-F8BD-47D7-B386-14BEF6EE49D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9225" uniqueCount="3299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9235" uniqueCount="3300">
   <si>
     <t>统计级别</t>
   </si>
@@ -10313,6 +10313,10 @@
   </si>
   <si>
     <t>台湾省</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10780,10 +10784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
@@ -11011,22 +11015,91 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
+    <row r="3" spans="1:40" ht="15.75">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43878</v>
+      </c>
+      <c r="D3" s="14">
+        <v>43879</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3298</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>3287</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="T3" s="15">
+        <v>43879.416666666664</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>3296</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>3295</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>43879.416666666664</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>3292</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AD3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:K1048576 L3:L1048576 M3:O1048576 Q2:R1048576 P3:P1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:R1048576 I4:P1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
@@ -11057,9 +11130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
+    <sheetView topLeftCell="AD1" zoomScale="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
